--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -971,7 +971,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1115,6 +1115,24 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-08-26 06:31</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1126,7 +1144,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1367,6 +1385,33 @@
       </c>
       <c r="G8" s="2" t="n">
         <v>34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-08-26 06:29</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22</v>
+      </c>
+      <c r="E9" t="n">
+        <v>16</v>
+      </c>
+      <c r="F9" t="n">
+        <v>25</v>
+      </c>
+      <c r="G9" t="n">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -4186,4 +4231,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07779CF8-9BCB-49D7-A1FB-AC19E5800281}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF58288C-13CE-4FD2-8DFC-1C14148575BC}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{281F03E8-33BB-4E78-ADF0-37B4D6F33721}"/>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4483,4 +4483,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7855620-1CA9-45B1-80A3-A07E33B78676}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{003B30B0-C9A9-4D64-B938-EA8E94C04613}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB70A7CC-271E-4660-87C5-D110D99F9919}"/>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ADTR_conversions" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="rugvista_aov" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="FRCTL_headset" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="FRCTL_chair" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="SODER_stats" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="SODER_rank_fiskedrag" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="SODER_rank_fiskerullar" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="SODER_rank_fiskespon" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="SODER_rank_vaskor" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="FRACTL_headset" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ADTR_conversions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rugvista_aov" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRCTL_headset" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRCTL_chair" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_stats" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskedrag" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskerullar" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskespon" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_vaskor" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRACTL_headset" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -119,14 +119,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
@@ -142,11 +136,14 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -524,307 +521,307 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20.005" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col width="20.005" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Konverteringar</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Varumärken</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Diff</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>2025-08-11 07:00</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="2" t="n">
         <v>52271226</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="2" t="n">
         <v>2311</v>
       </c>
-      <c r="D2" s="4" t="n"/>
+      <c r="D2" s="2" t="n"/>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>2025-08-12 07:00</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="2" t="n">
         <v>52271226</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="2" t="n">
         <v>2311</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>2025-08-13 09:11</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="2" t="n">
         <v>52296370</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="2" t="n">
         <v>2336</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="2" t="n">
         <v>25144</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>2025-08-14 07:00</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="2" t="n">
         <v>52319255</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="2" t="n">
         <v>2332</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="2" t="n">
         <v>22885</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>2025-08-15 07:00</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="2" t="n">
         <v>52352359</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="2" t="n">
         <v>2330</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="2" t="n">
         <v>33104</v>
       </c>
     </row>
     <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>2025-08-16 07:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="2" t="n">
         <v>52372278</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="2" t="n">
         <v>2328</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="2" t="n">
         <v>19919</v>
       </c>
     </row>
     <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>2025-08-17 07:00</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="2" t="n">
         <v>52389714</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="2" t="n">
         <v>2328</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="2" t="n">
         <v>17436</v>
       </c>
     </row>
     <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2025-08-18 07:00</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="2" t="n">
         <v>52404668</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="2" t="n">
         <v>2328</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="2" t="n">
         <v>14954</v>
       </c>
     </row>
     <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>2025-08-19 09:33</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="2" t="n">
         <v>52443020</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="2" t="n">
         <v>2328</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="2" t="n">
         <v>38352</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>2025-08-20 07:16</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="2" t="n">
         <v>52448092</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="2" t="n">
         <v>2327</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="2" t="n">
         <v>5072</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>2025-08-21 07:15</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="2" t="n">
         <v>52466153</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="2" t="n">
         <v>2328</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="2" t="n">
         <v>18061</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>2025-08-22 07:15</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="2" t="n">
         <v>52483224</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="2" t="n">
         <v>2332</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="2" t="n">
         <v>17071</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>2025-08-23 07:14</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="2" t="n">
         <v>52505894</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="2" t="n">
         <v>2329</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="2" t="n">
         <v>22670</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>2025-08-24 07:15</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="2" t="n">
         <v>52520038</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="2" t="n">
         <v>2328</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="2" t="n">
         <v>14144</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>2025-08-25 06:19</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="2" t="n">
         <v>52535398</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="2" t="n">
         <v>2328</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="2" t="n">
         <v>15360</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>2025-08-26 06:20</t>
         </is>
       </c>
-      <c r="B17" s="6" t="n">
+      <c r="B17" s="2" t="n">
         <v>52564759</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="C17" s="2" t="n">
         <v>2332</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="2" t="n">
         <v>29361</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>2025-08-27 07:11</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="4" t="n">
         <v>52566387</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="4" t="n">
         <v>2332</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="4" t="n">
         <v>1628</v>
       </c>
     </row>
@@ -846,11 +843,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
-  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -870,97 +862,97 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16.43357142857143" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="16.43357142857143" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>AOV</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>AOV Top-50</t>
         </is>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>2025-08-22 13:15</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="2" t="n">
         <v>1935</v>
       </c>
-      <c r="C2" s="4" t="n"/>
+      <c r="C2" s="2" t="n"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>2025-08-23 05:16</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="2" t="n">
         <v>1927</v>
       </c>
-      <c r="C3" s="4" t="n"/>
+      <c r="C3" s="2" t="n"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>2025-08-24 05:17</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="2" t="n">
         <v>1939</v>
       </c>
-      <c r="C4" s="4" t="n"/>
+      <c r="C4" s="2" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>2025-08-25 14:43</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="2" t="n">
         <v>1952</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="2" t="n">
         <v>2618</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>2025-08-26 04:24</t>
         </is>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="2" t="n">
         <v>1964</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="2" t="n">
         <v>2612</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>2025-08-27 05:15</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="4" t="n">
         <v>1976</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="4" t="n">
         <v>2651</v>
       </c>
     </row>
@@ -983,170 +975,176 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23.29071428571428" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="24.29071428571428" bestFit="1" customWidth="1" style="9" min="3" max="3"/>
-    <col width="24.43357142857143" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
+    <col width="23.29071428571428" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="24.29071428571428" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
+    <col width="24.43357142857143" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>Butik</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Fractal Design Scape Dark</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Fractal Design Scape Light</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>2025-08-11 07:00</t>
         </is>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="9" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>2025-08-12 09:27</t>
         </is>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>2025-08-13 09:35</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="9" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>2025-08-19 05:15</t>
         </is>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="9" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="D5" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>2025-08-22 22:58</t>
         </is>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="D6" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>2025-08-24 10:41</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="D7" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>2025-08-26 06:31</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-08-27 07:15</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="D8" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>2025-08-27 13:43</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1160,311 +1158,328 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="26.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="24.005" bestFit="1" customWidth="1" style="9" min="3" max="3"/>
-    <col width="24.14785714285714" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
-    <col width="23.71928571428571" bestFit="1" customWidth="1" style="9" min="5" max="5"/>
-    <col width="23.86214285714286" bestFit="1" customWidth="1" style="9" min="6" max="6"/>
-    <col width="22.43357142857143" bestFit="1" customWidth="1" style="9" min="7" max="7"/>
+    <col width="26.57642857142857" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="24.005" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
+    <col width="24.14785714285714" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
+    <col width="23.71928571428571" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
+    <col width="23.86214285714286" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
+    <col width="22.43357142857143" bestFit="1" customWidth="1" style="7" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Butik</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Fractal Refine Fabric Dark</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Fractal Refine Fabric Light</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Fractal Refine Mesh Dark</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Fractal Refine Mesh Light</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Fractal Refine Alcantara</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>2025-08-11 07:00</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="2" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>2025-08-12 09:28</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="2" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>2025-08-19 05:15</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="2" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>2025-08-20 05:16</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="2" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>2025-08-22 22:54</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="2" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>2025-08-24 10:43</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="2" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>2025-08-25 10:56</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="2" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2025-08-26 06:29</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="2" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-08-27 07:15</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>2025-08-27 13:44</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="C10" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-08-27 13:48</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>13</v>
+      </c>
+      <c r="D11" t="n">
+        <v>21</v>
+      </c>
+      <c r="E11" t="n">
+        <v>16</v>
+      </c>
+      <c r="F11" t="n">
+        <v>24</v>
+      </c>
+      <c r="G11" t="n">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1486,433 +1501,433 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19.005" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="19.005" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
     <col width="11.86214285714286" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="15.57642857142857" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="15.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
     <col width="12.29071428571429" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
-    <col width="16.005" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
+    <col width="16.005" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
     <col width="12.005" bestFit="1" customWidth="1" style="8" min="6" max="6"/>
-    <col width="15.86214285714286" bestFit="1" customWidth="1" style="2" min="7" max="7"/>
+    <col width="15.86214285714286" bestFit="1" customWidth="1" style="7" min="7" max="7"/>
     <col width="15.43357142857143" bestFit="1" customWidth="1" style="8" min="8" max="8"/>
-    <col width="13.14785714285714" bestFit="1" customWidth="1" style="2" min="9" max="9"/>
+    <col width="13.14785714285714" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Fiskedrag %</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Fiskedrag poäng</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Fiskerullar %</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Fiskerullar poäng</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Fiskespon %</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Fiskespon poäng</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Vaskor %</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Vaskor poäng</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>2025-08-12 11:29</t>
         </is>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="3" t="n">
         <v>0.2549</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="2" t="n">
         <v>1481</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="3" t="n">
         <v>0.0196</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="3" t="n">
         <v>0.098</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="2" t="n">
         <v>671</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="3" t="n">
         <v>0.2157</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="2" t="n">
         <v>1445</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>2025-08-13 17:01</t>
         </is>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="3" t="n">
         <v>0.2549</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="2" t="n">
         <v>1473</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="3" t="n">
         <v>0.0196</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="3" t="n">
         <v>0.098</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="2" t="n">
         <v>671</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="3" t="n">
         <v>0.2157</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="2" t="n">
         <v>1441</v>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>2025-08-18 09:59</t>
         </is>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="3" t="n">
         <v>0.2745</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="2" t="n">
         <v>1540</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="3" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="2" t="n">
         <v>198</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="3" t="n">
         <v>0.1176</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="2" t="n">
         <v>720</v>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="3" t="n">
         <v>0.2157</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="2" t="n">
         <v>1435</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>2025-08-19 09:24</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="3" t="n">
         <v>0.2745</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="2" t="n">
         <v>1554</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="3" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="2" t="n">
         <v>186</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="3" t="n">
         <v>0.1176</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="2" t="n">
         <v>736</v>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="3" t="n">
         <v>0.2157</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="2" t="n">
         <v>1407</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>2025-08-20 07:16</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="3" t="n">
         <v>0.2745</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="2" t="n">
         <v>1554</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="3" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="2" t="n">
         <v>186</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="3" t="n">
         <v>0.1176</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="2" t="n">
         <v>736</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="3" t="n">
         <v>0.2157</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="2" t="n">
         <v>1407</v>
       </c>
     </row>
     <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>2025-08-21 07:26</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="3" t="n">
         <v>0.2745</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="2" t="n">
         <v>1568</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="3" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="3" t="n">
         <v>0.098</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="2" t="n">
         <v>683</v>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="3" t="n">
         <v>0.2157</v>
       </c>
-      <c r="I7" s="4" t="n">
+      <c r="I7" s="2" t="n">
         <v>1363</v>
       </c>
     </row>
     <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>2025-08-22 07:25</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="3" t="n">
         <v>0.2745</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="2" t="n">
         <v>1566</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="3" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="3" t="n">
         <v>0.1176</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="2" t="n">
         <v>726</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="3" t="n">
         <v>0.2157</v>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="I8" s="2" t="n">
         <v>1319</v>
       </c>
     </row>
     <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2025-08-23 07:14</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="3" t="n">
         <v>0.2745</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="2" t="n">
         <v>1562</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="3" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="2" t="n">
         <v>190</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="3" t="n">
         <v>0.098</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="2" t="n">
         <v>663</v>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="3" t="n">
         <v>0.1961</v>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="I9" s="2" t="n">
         <v>1256</v>
       </c>
     </row>
     <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>2025-08-24 07:15</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="3" t="n">
         <v>0.2941</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="2" t="n">
         <v>1629</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="3" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="2" t="n">
         <v>192</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="3" t="n">
         <v>0.1176</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="2" t="n">
         <v>724</v>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="H10" s="3" t="n">
         <v>0.2157</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="I10" s="2" t="n">
         <v>1313</v>
       </c>
     </row>
     <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>2025-08-25 06:19</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="3" t="n">
         <v>0.2941</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="2" t="n">
         <v>1629</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="3" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="2" t="n">
         <v>184</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="3" t="n">
         <v>0.1176</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="2" t="n">
         <v>726</v>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="3" t="n">
         <v>0.2157</v>
       </c>
-      <c r="I11" s="4" t="n">
+      <c r="I11" s="2" t="n">
         <v>1321</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>2025-08-26 06:24</t>
         </is>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="3" t="n">
         <v>0.2941</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="2" t="n">
         <v>1619</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="3" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="F12" s="7" t="n">
+      <c r="F12" s="3" t="n">
         <v>0.1176</v>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="G12" s="2" t="n">
         <v>736</v>
       </c>
-      <c r="H12" s="7" t="n">
+      <c r="H12" s="3" t="n">
         <v>0.2157</v>
       </c>
-      <c r="I12" s="6" t="n">
+      <c r="I12" s="2" t="n">
         <v>1301</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>2025-08-27 07:15</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="5" t="n">
         <v>0.2941</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="4" t="n">
         <v>1633</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="5" t="n">
         <v>0.0196</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="4" t="n">
         <v>121</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="5" t="n">
         <v>0.098</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="4" t="n">
         <v>677</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="5" t="n">
         <v>0.1961</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="4" t="n">
         <v>1254</v>
       </c>
     </row>
@@ -1935,623 +1950,623 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16.43357142857143" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="16.43357142857143" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="8" max="8"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="9" max="9"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="11" max="11"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Antal_produkter</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Antal_egna</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Andel_egna</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Poängsumma</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Söder Tackle</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Eastfield Lures</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Söder Sportfiske</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>VATN</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Troutland</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>ANGLRS</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="6" t="inlineStr">
         <is>
           <t>Placeringar</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>2025-08-12 11:29</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C2" s="4" t="n">
+      <c r="B2" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="3" t="n">
         <v>0.2549</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="2" t="n">
         <v>1481</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="H2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6" t="inlineStr">
         <is>
           <t>1,3,7,8,15,16,20,24,25,33,37,38,40,52,54,58,59,66,67,71,75,76,84,88,89,91</t>
         </is>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>2025-08-13 17:01</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C3" s="4" t="n">
+      <c r="B3" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="3" t="n">
         <v>0.2549</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="2" t="n">
         <v>1473</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6" t="inlineStr">
         <is>
           <t>1,3,7,8,15,18,21,24,28,32,36,37,41,52,54,58,59,66,69,72,75,79,83,87,88,92</t>
         </is>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>2025-08-18 09:59</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C4" s="4" t="n">
+      <c r="B4" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="3" t="n">
         <v>0.2745</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="2" t="n">
         <v>1540</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3" t="inlineStr">
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr">
         <is>
           <t>1,2,7,8,18,19,24,25,26,30,34,37,38,46,52,53,58,59,69,70,75,76,77,81,85,88,89,97</t>
         </is>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>2025-08-19 09:24</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C5" s="4" t="n">
+      <c r="B5" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="3" t="n">
         <v>0.2745</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="2" t="n">
         <v>1554</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
+      <c r="H5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr">
         <is>
           <t>1,2,7,8,18,19,20,25,26,29,35,36,39,43,52,53,58,59,69,70,71,76,77,80,86,87,90,94</t>
         </is>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>2025-08-20 07:16</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C6" s="4" t="n">
+      <c r="B6" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="3" t="n">
         <v>0.2745</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="2" t="n">
         <v>1554</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3" t="inlineStr">
+      <c r="H6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr">
         <is>
           <t>1,2,7,8,18,19,20,25,26,29,35,36,39,43,52,53,58,59,69,70,71,76,77,80,86,87,90,94</t>
         </is>
       </c>
     </row>
     <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>2025-08-21 07:25</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C7" s="4" t="n">
+      <c r="B7" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="3" t="n">
         <v>0.2745</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="2" t="n">
         <v>1568</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="inlineStr">
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr">
         <is>
           <t>1,2,7,8,16,19,20,25,26,27,34,36,39,41,52,53,58,59,67,70,71,76,77,78,85,87,90,92</t>
         </is>
       </c>
     </row>
     <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>2025-08-22 07:25</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C8" s="4" t="n">
+      <c r="B8" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="3" t="n">
         <v>0.2745</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="2" t="n">
         <v>1566</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="inlineStr">
+      <c r="H8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr">
         <is>
           <t>1,2,7,8,13,19,20,25,28,32,33,36,38,40,52,53,58,59,64,70,71,76,79,83,84,87,89,91</t>
         </is>
       </c>
     </row>
     <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2025-08-23 07:14</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C9" s="4" t="n">
+      <c r="B9" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="3" t="n">
         <v>0.2745</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="2" t="n">
         <v>1562</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="inlineStr">
+      <c r="H9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr">
         <is>
           <t>1,2,7,8,13,19,20,25,28,31,34,37,38,41,52,53,58,59,64,70,71,76,79,82,85,88,89,92</t>
         </is>
       </c>
     </row>
     <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>2025-08-24 07:15</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C10" s="4" t="n">
+      <c r="B10" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C10" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="3" t="n">
         <v>0.2941</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="2" t="n">
         <v>1629</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="inlineStr">
+      <c r="H10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr">
         <is>
           <t>1,2,7,8,10,19,20,26,27,29,35,37,40,41,46,52,53,58,59,61,70,71,77,78,80,86,88,91,92,97</t>
         </is>
       </c>
     </row>
     <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>2025-08-25 06:19</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C11" s="4" t="n">
+      <c r="B11" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C11" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="3" t="n">
         <v>0.2941</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="2" t="n">
         <v>1629</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3" t="inlineStr">
+      <c r="H11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr">
         <is>
           <t>1,2,7,8,9,19,20,25,27,31,35,37,39,43,45,52,53,58,59,60,70,71,76,78,82,86,88,90,94,96</t>
         </is>
       </c>
     </row>
     <row r="12" ht="19.5" customHeight="1">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>2025-08-25 11:10</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C12" s="4" t="n">
+      <c r="B12" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C12" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="3" t="n">
         <v>0.2941</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="2" t="n">
         <v>1629</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="inlineStr">
+      <c r="H12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr">
         <is>
           <t>1,2,7,8,9,19,20,25,27,31,35,37,39,43,45,52,53,58,59,60,70,71,76,78,82,86,88,90,94,96</t>
         </is>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>2025-08-26 06:24</t>
         </is>
       </c>
-      <c r="B13" s="6" t="n">
-        <v>102</v>
-      </c>
-      <c r="C13" s="6" t="n">
+      <c r="B13" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C13" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="3" t="n">
         <v>0.2941</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="2" t="n">
         <v>1619</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="G13" s="6" t="n">
+      <c r="G13" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3" t="inlineStr">
+      <c r="H13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr">
         <is>
           <t>1,2,7,8,9,19,20,25,26,32,35,36,43,44,46,52,53,58,59,60,70,71,76,77,83,86,87,94,95,97</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>2025-08-27 07:15</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>102</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" s="4" t="n">
+        <v>102</v>
+      </c>
+      <c r="C14" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="5" t="n">
         <v>0.2941</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="4" t="n">
         <v>1633</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="H14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr">
         <is>
           <t>1,2,7,8,9,19,20,22,28,32,35,36,37,42,48,52,53,58,59,60,70,71,73,79,83,86,87,88,93,99</t>
         </is>
@@ -2576,623 +2591,623 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16.43357142857143" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="16.43357142857143" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="8" max="8"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="9" max="9"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="11" max="11"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Antal_produkter</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Antal_egna</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Andel_egna</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Poängsumma</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Söder Tackle</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Eastfield Lures</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Söder Sportfiske</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>VATN</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Troutland</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>ANGLRS</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="6" t="inlineStr">
         <is>
           <t>Placeringar</t>
         </is>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>2025-08-12 11:29</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="n">
+      <c r="B2" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="n">
         <v>0.0196</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6" t="inlineStr">
         <is>
           <t>11,62</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>2025-08-13 17:01</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="n">
+      <c r="B3" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="n">
         <v>0.0196</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="F3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6" t="inlineStr">
         <is>
           <t>12,63</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>2025-08-18 09:59</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C4" s="4" t="n">
+      <c r="B4" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="3" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="2" t="n">
         <v>198</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3" t="inlineStr">
+      <c r="F4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr">
         <is>
           <t>12,44,63,95</t>
         </is>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>2025-08-19 09:24</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C5" s="4" t="n">
+      <c r="B5" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="3" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="2" t="n">
         <v>186</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
+      <c r="F5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr">
         <is>
           <t>12,50,63,101</t>
         </is>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>2025-08-20 07:16</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C6" s="4" t="n">
+      <c r="B6" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="3" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="2" t="n">
         <v>186</v>
       </c>
-      <c r="F6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3" t="inlineStr">
+      <c r="F6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr">
         <is>
           <t>12,50,63,101</t>
         </is>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>2025-08-21 07:25</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C7" s="4" t="n">
+      <c r="B7" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="3" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="F7" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="inlineStr">
+      <c r="F7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr">
         <is>
           <t>12,46,63,97</t>
         </is>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>2025-08-22 07:25</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C8" s="4" t="n">
+      <c r="B8" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="3" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="F8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="inlineStr">
+      <c r="F8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr">
         <is>
           <t>12,46,63,97</t>
         </is>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2025-08-23 07:14</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C9" s="4" t="n">
+      <c r="B9" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="3" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="2" t="n">
         <v>190</v>
       </c>
-      <c r="F9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="inlineStr">
+      <c r="F9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr">
         <is>
           <t>12,48,63,99</t>
         </is>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>2025-08-24 07:15</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C10" s="4" t="n">
+      <c r="B10" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C10" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="3" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="2" t="n">
         <v>192</v>
       </c>
-      <c r="F10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="inlineStr">
+      <c r="F10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr">
         <is>
           <t>12,47,63,98</t>
         </is>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>2025-08-25 06:19</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C11" s="4" t="n">
+      <c r="B11" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C11" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="3" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="2" t="n">
         <v>184</v>
       </c>
-      <c r="F11" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3" t="inlineStr">
+      <c r="F11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr">
         <is>
           <t>14,49,65,100</t>
         </is>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>2025-08-25 11:10</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C12" s="4" t="n">
+      <c r="B12" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C12" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="3" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="2" t="n">
         <v>184</v>
       </c>
-      <c r="F12" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="inlineStr">
+      <c r="F12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr">
         <is>
           <t>14,49,65,100</t>
         </is>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>2025-08-26 06:24</t>
         </is>
       </c>
-      <c r="B13" s="6" t="n">
-        <v>102</v>
-      </c>
-      <c r="C13" s="6" t="n">
+      <c r="B13" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C13" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="3" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="F13" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3" t="inlineStr">
+      <c r="F13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr">
         <is>
           <t>14,47,65,98</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>2025-08-27 07:15</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>102</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="B14" s="4" t="n">
+        <v>102</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5" t="n">
         <v>0.0196</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="4" t="n">
         <v>121</v>
       </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="F14" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr">
         <is>
           <t>17,68</t>
         </is>
@@ -3217,623 +3232,623 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16.43357142857143" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="16.43357142857143" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="8" max="8"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="9" max="9"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="11" max="11"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Antal_produkter</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Antal_egna</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Andel_egna</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Poängsumma</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Söder Tackle</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Eastfield Lures</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Söder Sportfiske</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>VATN</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Troutland</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>ANGLRS</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="6" t="inlineStr">
         <is>
           <t>Placeringar</t>
         </is>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>2025-08-12 11:29</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C2" s="4" t="n">
+      <c r="B2" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="3" t="n">
         <v>0.098</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="2" t="n">
         <v>671</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="G2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" s="6" t="inlineStr">
         <is>
           <t>2,6,10,11,23,53,57,61,62,74</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>2025-08-13 17:01</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C3" s="4" t="n">
+      <c r="B3" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="3" t="n">
         <v>0.098</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="2" t="n">
         <v>671</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" s="6" t="inlineStr">
         <is>
           <t>2,6,10,11,23,53,57,61,62,74</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>2025-08-18 09:59</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C4" s="4" t="n">
+      <c r="B4" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="3" t="n">
         <v>0.1176</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="2" t="n">
         <v>720</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" s="3" t="inlineStr">
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr">
         <is>
           <t>2,6,10,11,27,49,53,57,61,62,78,100</t>
         </is>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>2025-08-19 09:24</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C5" s="4" t="n">
+      <c r="B5" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="3" t="n">
         <v>0.1176</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="2" t="n">
         <v>736</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
+      <c r="G5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr">
         <is>
           <t>2,5,9,12,20,49,53,56,60,63,71,100</t>
         </is>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>2025-08-20 07:16</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C6" s="4" t="n">
+      <c r="B6" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="3" t="n">
         <v>0.1176</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="2" t="n">
         <v>736</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" s="3" t="inlineStr">
+      <c r="G6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr">
         <is>
           <t>2,5,9,12,20,49,53,56,60,63,71,100</t>
         </is>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>2025-08-21 07:26</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C7" s="4" t="n">
+      <c r="B7" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="3" t="n">
         <v>0.098</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="2" t="n">
         <v>683</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" s="3" t="inlineStr">
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr">
         <is>
           <t>2,5,10,11,18,53,56,61,62,69</t>
         </is>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>2025-08-22 07:25</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C8" s="4" t="n">
+      <c r="B8" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="3" t="n">
         <v>0.1176</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="2" t="n">
         <v>726</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" s="3" t="inlineStr">
+      <c r="G8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr">
         <is>
           <t>2,5,10,13,21,51,53,56,61,64,72,102</t>
         </is>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2025-08-23 07:14</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C9" s="4" t="n">
+      <c r="B9" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="3" t="n">
         <v>0.098</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="2" t="n">
         <v>663</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" s="3" t="inlineStr">
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr">
         <is>
           <t>2,6,12,15,21,53,57,63,66,72</t>
         </is>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>2025-08-24 07:15</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C10" s="4" t="n">
+      <c r="B10" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C10" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="3" t="n">
         <v>0.1176</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="2" t="n">
         <v>724</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" s="3" t="inlineStr">
+      <c r="G10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr">
         <is>
           <t>2,6,11,15,20,49,53,57,62,66,71,100</t>
         </is>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>2025-08-25 06:19</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C11" s="4" t="n">
+      <c r="B11" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C11" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="3" t="n">
         <v>0.1176</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="2" t="n">
         <v>726</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" s="3" t="inlineStr">
+      <c r="G11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr">
         <is>
           <t>2,5,12,15,17,51,53,56,63,66,68,102</t>
         </is>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>2025-08-25 11:10</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C12" s="4" t="n">
+      <c r="B12" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C12" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="3" t="n">
         <v>0.1176</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="2" t="n">
         <v>726</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L12" s="3" t="inlineStr">
+      <c r="G12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr">
         <is>
           <t>2,5,12,15,17,51,53,56,63,66,68,102</t>
         </is>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>2025-08-26 06:24</t>
         </is>
       </c>
-      <c r="B13" s="6" t="n">
-        <v>102</v>
-      </c>
-      <c r="C13" s="6" t="n">
+      <c r="B13" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="3" t="n">
         <v>0.1176</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="2" t="n">
         <v>736</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L13" s="3" t="inlineStr">
+      <c r="G13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr">
         <is>
           <t>2,5,12,13,15,50,53,56,63,64,66,101</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>2025-08-27 07:15</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>102</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" s="4" t="n">
+        <v>102</v>
+      </c>
+      <c r="C14" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="5" t="n">
         <v>0.098</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="4" t="n">
         <v>677</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="G14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr">
         <is>
           <t>2,5,13,14,15,53,56,64,65,66</t>
         </is>
@@ -3858,623 +3873,623 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16.43357142857143" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="16.43357142857143" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="8" max="8"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="9" max="9"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="11" max="11"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Antal_produkter</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Antal_egna</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Andel_egna</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Poängsumma</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Söder Tackle</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Eastfield Lures</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Söder Sportfiske</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>VATN</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Troutland</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>ANGLRS</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="6" t="inlineStr">
         <is>
           <t>Placeringar</t>
         </is>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>2025-08-12 11:29</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C2" s="4" t="n">
+      <c r="B2" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="3" t="n">
         <v>0.2157</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="2" t="n">
         <v>1445</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4" t="n">
+      <c r="G2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="L2" s="6" t="inlineStr">
         <is>
           <t>1,2,4,5,7,8,9,13,23,25,33,52,53,55,56,58,59,60,64,74,76,84</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>2025-08-13 17:01</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C3" s="4" t="n">
+      <c r="B3" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="3" t="n">
         <v>0.2157</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="2" t="n">
         <v>1441</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4" t="n">
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="L3" s="6" t="inlineStr">
         <is>
           <t>1,2,4,5,6,8,9,13,23,24,37,52,53,55,56,57,59,60,64,74,75,88</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>2025-08-18 09:59</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C4" s="4" t="n">
+      <c r="B4" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="3" t="n">
         <v>0.2157</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="2" t="n">
         <v>1435</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4" t="n">
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="L4" s="3" t="inlineStr">
+      <c r="L4" s="6" t="inlineStr">
         <is>
           <t>1,2,4,6,7,8,9,12,22,27,37,52,53,55,57,58,59,60,63,73,78,88</t>
         </is>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>2025-08-19 09:24</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C5" s="4" t="n">
+      <c r="B5" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="3" t="n">
         <v>0.2157</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="2" t="n">
         <v>1407</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4" t="n">
+      <c r="G5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="L5" s="3" t="inlineStr">
+      <c r="L5" s="6" t="inlineStr">
         <is>
           <t>1,2,4,5,7,8,10,12,26,33,41,52,53,55,56,58,59,61,63,77,84,92</t>
         </is>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>2025-08-20 07:16</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C6" s="4" t="n">
+      <c r="B6" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="3" t="n">
         <v>0.2157</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="2" t="n">
         <v>1407</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="n">
+      <c r="G6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="L6" s="3" t="inlineStr">
+      <c r="L6" s="6" t="inlineStr">
         <is>
           <t>1,2,4,5,7,8,10,12,26,33,41,52,53,55,56,58,59,61,63,77,84,92</t>
         </is>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>2025-08-21 07:26</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C7" s="4" t="n">
+      <c r="B7" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="3" t="n">
         <v>0.2157</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="2" t="n">
         <v>1363</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="G7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4" t="n">
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="L7" s="3" t="inlineStr">
+      <c r="L7" s="6" t="inlineStr">
         <is>
           <t>1,2,4,5,7,8,15,17,30,37,45,52,53,55,56,58,59,66,68,81,88,96</t>
         </is>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>2025-08-22 07:25</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C8" s="4" t="n">
+      <c r="B8" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="3" t="n">
         <v>0.2157</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="2" t="n">
         <v>1319</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="G8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4" t="n">
+      <c r="G8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="L8" s="3" t="inlineStr">
+      <c r="L8" s="6" t="inlineStr">
         <is>
           <t>1,2,5,6,7,8,17,18,39,42,48,52,53,56,57,58,59,68,69,90,93,99</t>
         </is>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2025-08-23 07:14</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C9" s="4" t="n">
+      <c r="B9" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="3" t="n">
         <v>0.1961</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="2" t="n">
         <v>1256</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4" t="n">
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="L9" s="3" t="inlineStr">
+      <c r="L9" s="6" t="inlineStr">
         <is>
           <t>1,2,4,6,7,8,17,18,40,44,52,53,55,57,58,59,68,69,91,95</t>
         </is>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>2025-08-24 07:15</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C10" s="4" t="n">
+      <c r="B10" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C10" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="3" t="n">
         <v>0.2157</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="2" t="n">
         <v>1313</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="G10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4" t="n">
+      <c r="G10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="L10" s="3" t="inlineStr">
+      <c r="L10" s="6" t="inlineStr">
         <is>
           <t>1,2,4,6,7,9,17,22,34,45,49,52,53,55,57,58,60,68,73,85,96,100</t>
         </is>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>2025-08-25 06:19</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C11" s="4" t="n">
+      <c r="B11" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C11" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="3" t="n">
         <v>0.2157</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="2" t="n">
         <v>1321</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="G11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4" t="n">
+      <c r="G11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="L11" s="3" t="inlineStr">
+      <c r="L11" s="6" t="inlineStr">
         <is>
           <t>1,2,3,5,6,9,17,22,35,44,48,52,53,54,56,57,60,68,73,86,95,99</t>
         </is>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>2025-08-25 11:10</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C12" s="4" t="n">
+      <c r="B12" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C12" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="3" t="n">
         <v>0.2157</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="2" t="n">
         <v>1321</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="G12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4" t="n">
+      <c r="G12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="L12" s="3" t="inlineStr">
+      <c r="L12" s="6" t="inlineStr">
         <is>
           <t>1,2,3,5,6,9,17,22,35,44,48,52,53,54,56,57,60,68,73,86,95,99</t>
         </is>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>2025-08-26 06:24</t>
         </is>
       </c>
-      <c r="B13" s="6" t="n">
-        <v>102</v>
-      </c>
-      <c r="C13" s="6" t="n">
+      <c r="B13" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C13" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="3" t="n">
         <v>0.2157</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="2" t="n">
         <v>1301</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="G13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6" t="n">
+      <c r="G13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="L13" s="3" t="inlineStr">
+      <c r="L13" s="6" t="inlineStr">
         <is>
           <t>1,2,4,5,6,9,17,24,35,49,50,52,53,55,56,57,60,68,75,86,100,101</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>2025-08-27 07:15</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>102</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" s="4" t="n">
+        <v>102</v>
+      </c>
+      <c r="C14" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="5" t="n">
         <v>0.1961</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="4" t="n">
         <v>1254</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="G14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="6" t="inlineStr">
         <is>
           <t>1,2,4,5,6,9,16,18,42,45,52,53,55,56,57,60,67,69,93,96</t>
         </is>
@@ -4707,13 +4722,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7855620-1CA9-45B1-80A3-A07E33B78676}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4250BB2E-F759-4DC7-A594-5F7698BB3F9E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{003B30B0-C9A9-4D64-B938-EA8E94C04613}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F91851E-2B8A-4AFA-A16F-D5F422C1AB19}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB70A7CC-271E-4660-87C5-D110D99F9919}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95B0DAA1-8EC7-4373-9A65-D097E51AF416}"/>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4687,4 +4687,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B6EB44E-37F8-4C8E-9EA3-50834EEA7992}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BF9431A-F8DA-4453-A285-CE3E4FB4C73A}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2505DE3-4631-4738-AD90-66608E4A738F}"/>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ADTR_conversions" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="rugvista_aov" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="FRCTL_headset" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="FRCTL_chair" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="SODER_stats" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="SODER_rank_fiskedrag" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="SODER_rank_fiskerullar" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="SODER_rank_fiskespon" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="SODER_rank_vaskor" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="FRACTL_headset" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ADTR_conversions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rugvista_aov" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRCTL_headset" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRCTL_chair" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_stats" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskedrag" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskerullar" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskespon" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_vaskor" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRACTL_headset" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -858,7 +858,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,6 +970,19 @@
         <v>1970</v>
       </c>
       <c r="C8" t="n">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-08-28 06:30</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C9" t="n">
         <v>2624</v>
       </c>
     </row>
@@ -4911,13 +4924,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B6EB44E-37F8-4C8E-9EA3-50834EEA7992}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AEEE54C-F5F4-4B22-B066-4299A3C112D3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BF9431A-F8DA-4453-A285-CE3E4FB4C73A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD236033-EEB9-4A3C-B87E-D73C12396FC4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2505DE3-4631-4738-AD90-66608E4A738F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62D9E7F5-3394-4C73-87A7-E7167B68EEBF}"/>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,57 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fcih.sharepoint.com/sites/Micro/Delade dokument/Portfölj/GitHub/kodning/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="62" documentId="11_6FB41B6C10864DE6C2FD9AEE589113CE870EA3FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27F7D580-9DE2-4321-8D12-FEC26FDDE92A}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="4"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="23232" windowHeight="18576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="ADTR_conversions"/>
-    <sheet r:id="rId2" sheetId="2" name="rugvista_aov"/>
-    <sheet r:id="rId3" sheetId="3" name="FRCTL_headset"/>
-    <sheet r:id="rId4" sheetId="4" name="FRCTL_chair"/>
-    <sheet r:id="rId5" sheetId="5" name="soder_ads"/>
-    <sheet r:id="rId6" sheetId="6" name="SODER_stats"/>
-    <sheet r:id="rId7" sheetId="7" name="SODER_rank_fiskedrag"/>
-    <sheet r:id="rId8" sheetId="8" name="SODER_rank_fiskerullar"/>
-    <sheet r:id="rId9" sheetId="9" name="SODER_rank_fiskespon"/>
-    <sheet r:id="rId10" sheetId="10" name="SODER_rank_vaskor"/>
-    <sheet r:id="rId11" sheetId="11" name="FRACTL_headset"/>
+    <sheet name="ADTR_conversions" sheetId="1" r:id="rId1"/>
+    <sheet name="rugvista_aov" sheetId="2" r:id="rId2"/>
+    <sheet name="FRCTL_headset" sheetId="3" r:id="rId3"/>
+    <sheet name="FRCTL_chair" sheetId="4" r:id="rId4"/>
+    <sheet name="soder_ads" sheetId="5" r:id="rId5"/>
+    <sheet name="SODER_stats" sheetId="6" r:id="rId6"/>
+    <sheet name="SODER_rank_fiskedrag" sheetId="7" r:id="rId7"/>
+    <sheet name="SODER_rank_fiskerullar" sheetId="8" r:id="rId8"/>
+    <sheet name="SODER_rank_fiskespon" sheetId="9" r:id="rId9"/>
+    <sheet name="SODER_rank_vaskor" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
     <definedName name="IQ_CY">10000</definedName>
     <definedName name="IQ_DAILY">500000</definedName>
-    <definedName name="IQ_DNTM">700000</definedName>
+    <definedName name="IQ_DNTM" hidden="1">700000</definedName>
     <definedName name="IQ_FH">100000</definedName>
     <definedName name="IQ_FQ">500</definedName>
-    <definedName name="IQ_FWD_CY">10001</definedName>
-    <definedName name="IQ_FWD_CY1">10002</definedName>
-    <definedName name="IQ_FWD_CY2">10003</definedName>
-    <definedName name="IQ_FWD_FY">1001</definedName>
-    <definedName name="IQ_FWD_FY1">1002</definedName>
-    <definedName name="IQ_FWD_FY2">1003</definedName>
-    <definedName name="IQ_FWD_Q">501</definedName>
-    <definedName name="IQ_FWD_Q1">502</definedName>
-    <definedName name="IQ_FWD_Q2">503</definedName>
+    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
+    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
+    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
+    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
+    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
+    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
+    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
+    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
+    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
     <definedName name="IQ_FY">1000</definedName>
-    <definedName name="IQ_LATESTK">1000</definedName>
-    <definedName name="IQ_LATESTQ">500</definedName>
+    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
+    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
     <definedName name="IQ_LTM">2000</definedName>
-    <definedName name="IQ_LTMMONTH">120000</definedName>
+    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
-    <definedName name="IQ_MTD">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_">"02/17/2025 14:07:18"</definedName>
+    <definedName name="IQ_MTD" hidden="1">800000</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">"02/17/2025 14:07:18"</definedName>
     <definedName name="IQ_NTM">6000</definedName>
-    <definedName name="IQ_QTD">750000</definedName>
-    <definedName name="IQ_TODAY">0</definedName>
+    <definedName name="IQ_QTD" hidden="1">750000</definedName>
+    <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
-    <definedName name="IQ_YTDMONTH">130000</definedName>
+    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" iterateDelta="9.9999999999994451E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -499,8 +517,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -585,53 +602,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -642,10 +656,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -683,71 +697,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -775,7 +789,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -798,11 +812,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -811,13 +825,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -827,7 +841,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -836,7 +850,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -845,7 +859,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -853,10 +867,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -921,283 +935,283 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
+        <v>52246391</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2311</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="1">
         <v>52271226</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="1">
         <v>2311</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="2">
-        <v>52271226</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2311</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>52296370</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>2336</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>25144</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>52319255</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>2332</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>22885</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>52352359</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>2330</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>33104</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>52372278</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2328</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>19919</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>52389714</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>2328</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>17436</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>52404668</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>2328</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>14954</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>52443020</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>2328</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>38352</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>52448092</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>2327</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>5072</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>52466153</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>2328</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>18061</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>52483224</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>2332</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>17071</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>52505894</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>2329</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>22670</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>52520038</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>2328</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>14144</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>52535398</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>2328</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>15360</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>52564759</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>2332</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>29361</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>52566387</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>2332</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>1628</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>52587965</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>2332</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>21578</v>
       </c>
     </row>
@@ -1207,7 +1221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1215,589 +1229,582 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2">
-        <v>102</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="1">
+        <v>102</v>
+      </c>
+      <c r="C2" s="1">
         <v>22</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>0.2157</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>1445</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>8</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
         <v>12</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2">
-        <v>102</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="1">
+        <v>102</v>
+      </c>
+      <c r="C3" s="1">
         <v>22</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>0.2157</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>1441</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>8</v>
       </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
         <v>12</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2">
-        <v>102</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="1">
+        <v>102</v>
+      </c>
+      <c r="C4" s="1">
         <v>22</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>0.2157</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>1435</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>8</v>
       </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
         <v>12</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2">
-        <v>102</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="1">
+        <v>102</v>
+      </c>
+      <c r="C5" s="1">
         <v>22</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>0.2157</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>1407</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>8</v>
       </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
         <v>12</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2">
-        <v>102</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="1">
+        <v>102</v>
+      </c>
+      <c r="C6" s="1">
         <v>22</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>0.2157</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>1407</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>8</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
         <v>12</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2">
-        <v>102</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="1">
+        <v>102</v>
+      </c>
+      <c r="C7" s="1">
         <v>22</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>0.2157</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>1363</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>8</v>
       </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
         <v>12</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2">
-        <v>102</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="1">
+        <v>102</v>
+      </c>
+      <c r="C8" s="1">
         <v>22</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>0.2157</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>1319</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>8</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
         <v>12</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2">
-        <v>102</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="1">
+        <v>102</v>
+      </c>
+      <c r="C9" s="1">
         <v>20</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>0.1961</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>1256</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>8</v>
       </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
         <v>10</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2">
-        <v>102</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="1">
+        <v>102</v>
+      </c>
+      <c r="C10" s="1">
         <v>22</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>0.2157</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>1313</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>8</v>
       </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
         <v>12</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2">
-        <v>102</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="1">
+        <v>102</v>
+      </c>
+      <c r="C11" s="1">
         <v>22</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>0.2157</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>1321</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>8</v>
       </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>2</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
         <v>12</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="2">
-        <v>102</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="1">
+        <v>102</v>
+      </c>
+      <c r="C12" s="1">
         <v>22</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>0.2157</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>1321</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>8</v>
       </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>2</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
         <v>12</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2">
-        <v>102</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="1">
+        <v>102</v>
+      </c>
+      <c r="C13" s="1">
         <v>22</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>0.2157</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>1301</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>8</v>
       </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>2</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
         <v>12</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="2">
-        <v>102</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="1">
+        <v>102</v>
+      </c>
+      <c r="C14" s="1">
         <v>20</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>0.1961</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>1254</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>8</v>
       </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
         <v>10</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="2">
-        <v>102</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="1">
+        <v>102</v>
+      </c>
+      <c r="C15" s="1">
         <v>22</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>0.2157</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>1321</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>8</v>
       </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>2</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
         <v>12</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1806,23 +1813,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1830,92 +1822,91 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1935</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1927</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1939</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1952</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>2618</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1964</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>2612</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1976</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2651</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>1970</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>2624</v>
       </c>
     </row>
@@ -1925,7 +1916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1933,137 +1924,137 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="23.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="24.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1" t="s">
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1" t="s">
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1" t="s">
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="1" t="s">
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2073,7 +2064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2081,244 +2072,244 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="24.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="22.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>12</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>21</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>13</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>24</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>12</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>21</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>13</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>24</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>13</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>20</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>15</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>23</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>13</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>20</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>15</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>24</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>13</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>19</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>15</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>24</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>13</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>21</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>15</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>25</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>13</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>22</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>16</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>25</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>13</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>22</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>16</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>25</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>13</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>21</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>16</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>24</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>33</v>
       </c>
     </row>
@@ -2328,138 +2319,123 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>49</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <v>230</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>13</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>59</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>10</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="7">
         <v>10</v>
       </c>
-      <c r="H2" s="9">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9">
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
         <v>32</v>
       </c>
-      <c r="J2" s="9">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9">
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
         <v>34</v>
       </c>
-      <c r="L2" s="9">
-        <v>0</v>
-      </c>
-      <c r="M2" s="9">
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
         <v>32</v>
       </c>
-      <c r="N2" s="9">
-        <v>0</v>
-      </c>
-      <c r="O2" s="9">
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
         <v>20</v>
       </c>
-      <c r="P2" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="9">
+      <c r="P2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="7">
         <v>41</v>
       </c>
     </row>
@@ -2469,7 +2445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2477,422 +2453,422 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.2549</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="2">
+        <v>0.25490000000000002</v>
+      </c>
+      <c r="C2" s="1">
         <v>1481</v>
       </c>
-      <c r="D2" s="3">
-        <v>0.0196</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="2">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="E2" s="1">
         <v>133</v>
       </c>
-      <c r="F2" s="3">
-        <v>0.098</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G2" s="1">
         <v>671</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>0.2157</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>1445</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.2549</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="2">
+        <v>0.25490000000000002</v>
+      </c>
+      <c r="C3" s="1">
         <v>1473</v>
       </c>
-      <c r="D3" s="3">
-        <v>0.0196</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="2">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="E3" s="1">
         <v>131</v>
       </c>
-      <c r="F3" s="3">
-        <v>0.098</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G3" s="1">
         <v>671</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>0.2157</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>1441</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.2745</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="2">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="C4" s="1">
         <v>1540</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.0392</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="E4" s="1">
         <v>198</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>0.1176</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>720</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>0.2157</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>1435</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.2745</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="2">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="C5" s="1">
         <v>1554</v>
       </c>
-      <c r="D5" s="3">
-        <v>0.0392</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="E5" s="1">
         <v>186</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0.1176</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>736</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>0.2157</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>1407</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.2745</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="2">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="C6" s="1">
         <v>1554</v>
       </c>
-      <c r="D6" s="3">
-        <v>0.0392</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="E6" s="1">
         <v>186</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0.1176</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>736</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>0.2157</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>1407</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.2745</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="2">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="C7" s="1">
         <v>1568</v>
       </c>
-      <c r="D7" s="3">
-        <v>0.0392</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="E7" s="1">
         <v>194</v>
       </c>
-      <c r="F7" s="3">
-        <v>0.098</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G7" s="1">
         <v>683</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>0.2157</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>1363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.2745</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="2">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="C8" s="1">
         <v>1566</v>
       </c>
-      <c r="D8" s="3">
-        <v>0.0392</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="E8" s="1">
         <v>194</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>0.1176</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>726</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>0.2157</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>1319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.2745</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="2">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="C9" s="1">
         <v>1562</v>
       </c>
-      <c r="D9" s="3">
-        <v>0.0392</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="E9" s="1">
         <v>190</v>
       </c>
-      <c r="F9" s="3">
-        <v>0.098</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G9" s="1">
         <v>663</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>0.1961</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>1256</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.2941</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="2">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="C10" s="1">
         <v>1629</v>
       </c>
-      <c r="D10" s="3">
-        <v>0.0392</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="E10" s="1">
         <v>192</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>0.1176</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>724</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>0.2157</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>1313</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.2941</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="2">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="C11" s="1">
         <v>1629</v>
       </c>
-      <c r="D11" s="3">
-        <v>0.0392</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="E11" s="1">
         <v>184</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>0.1176</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>726</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>0.2157</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>1321</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="3">
-        <v>0.2941</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="2">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="C12" s="1">
         <v>1619</v>
       </c>
-      <c r="D12" s="3">
-        <v>0.0392</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="E12" s="1">
         <v>188</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>0.1176</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>736</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>0.2157</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>1301</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="3">
-        <v>0.2941</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="2">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="C13" s="1">
         <v>1633</v>
       </c>
-      <c r="D13" s="3">
-        <v>0.0196</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="2">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="E13" s="1">
         <v>121</v>
       </c>
-      <c r="F13" s="3">
-        <v>0.098</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G13" s="1">
         <v>677</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>0.1961</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>1254</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="3">
-        <v>0.2745</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="2">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="C14" s="1">
         <v>1572</v>
       </c>
-      <c r="D14" s="3">
-        <v>0.0196</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="2">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="E14" s="1">
         <v>123</v>
       </c>
-      <c r="F14" s="3">
-        <v>0.098</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G14" s="1">
         <v>677</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>0.2157</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>1321</v>
       </c>
     </row>
@@ -2902,7 +2878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2910,589 +2886,582 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2">
-        <v>102</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="1">
+        <v>102</v>
+      </c>
+      <c r="C2" s="1">
         <v>26</v>
       </c>
-      <c r="D2" s="3">
-        <v>0.2549</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="2">
+        <v>0.25490000000000002</v>
+      </c>
+      <c r="E2" s="1">
         <v>1481</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>22</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>4</v>
       </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2">
-        <v>102</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="1">
+        <v>102</v>
+      </c>
+      <c r="C3" s="1">
         <v>26</v>
       </c>
-      <c r="D3" s="3">
-        <v>0.2549</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="2">
+        <v>0.25490000000000002</v>
+      </c>
+      <c r="E3" s="1">
         <v>1473</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>22</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>4</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2">
-        <v>102</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="1">
+        <v>102</v>
+      </c>
+      <c r="C4" s="1">
         <v>28</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.2745</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="2">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="E4" s="1">
         <v>1540</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>24</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>4</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2">
-        <v>102</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="1">
+        <v>102</v>
+      </c>
+      <c r="C5" s="1">
         <v>28</v>
       </c>
-      <c r="D5" s="3">
-        <v>0.2745</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="2">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="E5" s="1">
         <v>1554</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>24</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>4</v>
       </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2">
-        <v>102</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="1">
+        <v>102</v>
+      </c>
+      <c r="C6" s="1">
         <v>28</v>
       </c>
-      <c r="D6" s="3">
-        <v>0.2745</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="2">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="E6" s="1">
         <v>1554</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>24</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>4</v>
       </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="2">
-        <v>102</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="1">
+        <v>102</v>
+      </c>
+      <c r="C7" s="1">
         <v>28</v>
       </c>
-      <c r="D7" s="3">
-        <v>0.2745</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="2">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="E7" s="1">
         <v>1568</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>24</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>4</v>
       </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2">
-        <v>102</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="1">
+        <v>102</v>
+      </c>
+      <c r="C8" s="1">
         <v>28</v>
       </c>
-      <c r="D8" s="3">
-        <v>0.2745</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="2">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="E8" s="1">
         <v>1566</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>24</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>4</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2">
-        <v>102</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="1">
+        <v>102</v>
+      </c>
+      <c r="C9" s="1">
         <v>28</v>
       </c>
-      <c r="D9" s="3">
-        <v>0.2745</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="2">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="E9" s="1">
         <v>1562</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>24</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>4</v>
       </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2">
-        <v>102</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="1">
+        <v>102</v>
+      </c>
+      <c r="C10" s="1">
         <v>30</v>
       </c>
-      <c r="D10" s="3">
-        <v>0.2941</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="2">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="E10" s="1">
         <v>1629</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>26</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>4</v>
       </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1" t="s">
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2">
-        <v>102</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="1">
+        <v>102</v>
+      </c>
+      <c r="C11" s="1">
         <v>30</v>
       </c>
-      <c r="D11" s="3">
-        <v>0.2941</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="2">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="E11" s="1">
         <v>1629</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>26</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>4</v>
       </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1" t="s">
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="2">
-        <v>102</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="1">
+        <v>102</v>
+      </c>
+      <c r="C12" s="1">
         <v>30</v>
       </c>
-      <c r="D12" s="3">
-        <v>0.2941</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="2">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="E12" s="1">
         <v>1629</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>26</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>4</v>
       </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1" t="s">
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2">
-        <v>102</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="1">
+        <v>102</v>
+      </c>
+      <c r="C13" s="1">
         <v>30</v>
       </c>
-      <c r="D13" s="3">
-        <v>0.2941</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="2">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="E13" s="1">
         <v>1619</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>26</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>4</v>
       </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1" t="s">
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="2">
-        <v>102</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="1">
+        <v>102</v>
+      </c>
+      <c r="C14" s="1">
         <v>30</v>
       </c>
-      <c r="D14" s="3">
-        <v>0.2941</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="2">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="E14" s="1">
         <v>1633</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>26</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>4</v>
       </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1" t="s">
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="2">
-        <v>102</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="1">
+        <v>102</v>
+      </c>
+      <c r="C15" s="1">
         <v>28</v>
       </c>
-      <c r="D15" s="3">
-        <v>0.2745</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15" s="2">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="E15" s="1">
         <v>1572</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>24</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>4</v>
       </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1" t="s">
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3502,7 +3471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3510,589 +3479,582 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2">
-        <v>102</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.0196</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B2" s="1">
+        <v>102</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="E2" s="1">
         <v>133</v>
       </c>
-      <c r="F2" s="2">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2">
-        <v>102</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.0196</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="B3" s="1">
+        <v>102</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="E3" s="1">
         <v>131</v>
       </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2">
-        <v>102</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="1">
+        <v>102</v>
+      </c>
+      <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.0392</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="E4" s="1">
         <v>198</v>
       </c>
-      <c r="F4" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2">
-        <v>102</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="1">
+        <v>102</v>
+      </c>
+      <c r="C5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="3">
-        <v>0.0392</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="E5" s="1">
         <v>186</v>
       </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2">
-        <v>102</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="1">
+        <v>102</v>
+      </c>
+      <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="3">
-        <v>0.0392</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="E6" s="1">
         <v>186</v>
       </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="2">
-        <v>102</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="1">
+        <v>102</v>
+      </c>
+      <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="3">
-        <v>0.0392</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="E7" s="1">
         <v>194</v>
       </c>
-      <c r="F7" s="2">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2">
-        <v>102</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="1">
+        <v>102</v>
+      </c>
+      <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
-        <v>0.0392</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="E8" s="1">
         <v>194</v>
       </c>
-      <c r="F8" s="2">
-        <v>2</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2">
-        <v>102</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="1">
+        <v>102</v>
+      </c>
+      <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>0.0392</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="E9" s="1">
         <v>190</v>
       </c>
-      <c r="F9" s="2">
-        <v>2</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>2</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2">
-        <v>102</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="1">
+        <v>102</v>
+      </c>
+      <c r="C10" s="1">
         <v>4</v>
       </c>
-      <c r="D10" s="3">
-        <v>0.0392</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="E10" s="1">
         <v>192</v>
       </c>
-      <c r="F10" s="2">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>2</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1" t="s">
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2">
-        <v>102</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="1">
+        <v>102</v>
+      </c>
+      <c r="C11" s="1">
         <v>4</v>
       </c>
-      <c r="D11" s="3">
-        <v>0.0392</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="E11" s="1">
         <v>184</v>
       </c>
-      <c r="F11" s="2">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>2</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1" t="s">
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="2">
-        <v>102</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="1">
+        <v>102</v>
+      </c>
+      <c r="C12" s="1">
         <v>4</v>
       </c>
-      <c r="D12" s="3">
-        <v>0.0392</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="E12" s="1">
         <v>184</v>
       </c>
-      <c r="F12" s="2">
-        <v>2</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>2</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1" t="s">
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2">
-        <v>102</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="1">
+        <v>102</v>
+      </c>
+      <c r="C13" s="1">
         <v>4</v>
       </c>
-      <c r="D13" s="3">
-        <v>0.0392</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="E13" s="1">
         <v>188</v>
       </c>
-      <c r="F13" s="2">
-        <v>2</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>2</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1" t="s">
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="2">
-        <v>102</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.0196</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="B14" s="1">
+        <v>102</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="E14" s="1">
         <v>121</v>
       </c>
-      <c r="F14" s="2">
-        <v>2</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1" t="s">
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="2">
-        <v>102</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.0196</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="B15" s="1">
+        <v>102</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="E15" s="1">
         <v>123</v>
       </c>
-      <c r="F15" s="2">
-        <v>2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1" t="s">
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4102,7 +4064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -4110,589 +4072,582 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2">
-        <v>102</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="1">
+        <v>102</v>
+      </c>
+      <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
-        <v>0.098</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E2" s="1">
         <v>671</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>6</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>2</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2">
-        <v>102</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="1">
+        <v>102</v>
+      </c>
+      <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
-        <v>0.098</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E3" s="1">
         <v>671</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>6</v>
       </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>2</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2">
-        <v>102</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="1">
+        <v>102</v>
+      </c>
+      <c r="C4" s="1">
         <v>12</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>0.1176</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>720</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>6</v>
       </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>2</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2">
-        <v>102</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="1">
+        <v>102</v>
+      </c>
+      <c r="C5" s="1">
         <v>12</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>0.1176</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>736</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>6</v>
       </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2">
-        <v>102</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="1">
+        <v>102</v>
+      </c>
+      <c r="C6" s="1">
         <v>12</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>0.1176</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>736</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>6</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>2</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2">
-        <v>102</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="1">
+        <v>102</v>
+      </c>
+      <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="3">
-        <v>0.098</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E7" s="1">
         <v>683</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>6</v>
       </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>2</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2">
-        <v>102</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="1">
+        <v>102</v>
+      </c>
+      <c r="C8" s="1">
         <v>12</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>0.1176</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>726</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>6</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2">
-        <v>102</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="1">
+        <v>102</v>
+      </c>
+      <c r="C9" s="1">
         <v>10</v>
       </c>
-      <c r="D9" s="3">
-        <v>0.098</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E9" s="1">
         <v>663</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>6</v>
       </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>2</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2">
-        <v>102</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="1">
+        <v>102</v>
+      </c>
+      <c r="C10" s="1">
         <v>12</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>0.1176</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>724</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>6</v>
       </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2">
-        <v>2</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>2</v>
-      </c>
-      <c r="L10" s="1" t="s">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2">
-        <v>102</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="1">
+        <v>102</v>
+      </c>
+      <c r="C11" s="1">
         <v>12</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>0.1176</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>726</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>6</v>
       </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>2</v>
-      </c>
-      <c r="I11" s="2">
-        <v>2</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>2</v>
-      </c>
-      <c r="L11" s="1" t="s">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="2">
-        <v>102</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="1">
+        <v>102</v>
+      </c>
+      <c r="C12" s="1">
         <v>12</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>0.1176</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>726</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>6</v>
       </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>2</v>
-      </c>
-      <c r="I12" s="2">
-        <v>2</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>2</v>
-      </c>
-      <c r="L12" s="1" t="s">
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2">
-        <v>102</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="1">
+        <v>102</v>
+      </c>
+      <c r="C13" s="1">
         <v>12</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>0.1176</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>736</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>6</v>
       </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>2</v>
-      </c>
-      <c r="I13" s="2">
-        <v>2</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>2</v>
-      </c>
-      <c r="L13" s="1" t="s">
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="2">
-        <v>102</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="1">
+        <v>102</v>
+      </c>
+      <c r="C14" s="1">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0.098</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E14" s="1">
         <v>677</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>6</v>
       </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>2</v>
-      </c>
-      <c r="L14" s="1" t="s">
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="2">
-        <v>102</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="1">
+        <v>102</v>
+      </c>
+      <c r="C15" s="1">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>0.098</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E15" s="1">
         <v>677</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>6</v>
       </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>2</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>2</v>
-      </c>
-      <c r="L15" s="1" t="s">
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+      <c r="L15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4903,15 +4858,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
@@ -4922,14 +4868,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B7BCCA3-0566-4AA5-8B0E-C406FCF125E2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B7BCCA3-0566-4AA5-8B0E-C406FCF125E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <ds:schemaRef ds:uri="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{989667A6-F076-4152-B303-2621639FD2CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{449992B9-AFD7-4E94-A06E-7D0135DA1C83}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <ds:schemaRef ds:uri="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{449992B9-AFD7-4E94-A06E-7D0135DA1C83}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{989667A6-F076-4152-B303-2621639FD2CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -16,6 +16,7 @@
     <sheet name="SODER_rank_fiskespon" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="SODER_rank_vaskor" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="FRACTL_headset" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="soder_ads" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -56,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -70,6 +71,9 @@
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -79,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -109,11 +113,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
@@ -141,6 +151,9 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,7 +520,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,6 +840,22 @@
       </c>
       <c r="D19" t="n">
         <v>21578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-08-29 07:25</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>52615189</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2335</v>
+      </c>
+      <c r="D20" t="n">
+        <v>27224</v>
       </c>
     </row>
   </sheetData>
@@ -852,13 +881,174 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Datum</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>SE Aktiva</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>SE Totala</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>DE Aktiva</t>
+        </is>
+      </c>
+      <c r="E1" s="10" t="inlineStr">
+        <is>
+          <t>DE Totala</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>NO Aktiva</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>NO Totala</t>
+        </is>
+      </c>
+      <c r="H1" s="10" t="inlineStr">
+        <is>
+          <t>FR Aktiva</t>
+        </is>
+      </c>
+      <c r="I1" s="10" t="inlineStr">
+        <is>
+          <t>FR Totala</t>
+        </is>
+      </c>
+      <c r="J1" s="10" t="inlineStr">
+        <is>
+          <t>NL Aktiva</t>
+        </is>
+      </c>
+      <c r="K1" s="10" t="inlineStr">
+        <is>
+          <t>NL Totala</t>
+        </is>
+      </c>
+      <c r="L1" s="10" t="inlineStr">
+        <is>
+          <t>FI Aktiva</t>
+        </is>
+      </c>
+      <c r="M1" s="10" t="inlineStr">
+        <is>
+          <t>FI Totala</t>
+        </is>
+      </c>
+      <c r="N1" s="10" t="inlineStr">
+        <is>
+          <t>DK Aktiva</t>
+        </is>
+      </c>
+      <c r="O1" s="10" t="inlineStr">
+        <is>
+          <t>DK Totala</t>
+        </is>
+      </c>
+      <c r="P1" s="10" t="inlineStr">
+        <is>
+          <t>EN Aktiva</t>
+        </is>
+      </c>
+      <c r="Q1" s="10" t="inlineStr">
+        <is>
+          <t>EN Totala</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>49</v>
+      </c>
+      <c r="C2" t="n">
+        <v>230</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E2" t="n">
+        <v>59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>32</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>34</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>32</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>20</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -971,6 +1161,19 @@
       </c>
       <c r="C8" t="n">
         <v>2624</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-08-29 07:28</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2626</v>
       </c>
     </row>
   </sheetData>
@@ -1483,7 +1686,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1952,6 +2155,37 @@
         <v>1321</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-08-29 07:28</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2745</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1556</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="E15" t="n">
+        <v>123</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="G15" t="n">
+        <v>675</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1961</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1274</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1963,7 +2197,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2635,6 +2869,48 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-08-29 07:28</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>102</v>
+      </c>
+      <c r="C16" t="n">
+        <v>28</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2745</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1556</v>
+      </c>
+      <c r="F16" t="n">
+        <v>24</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>1,2,7,8,9,19,21,25,28,30,32,35,40,50,52,53,58,59,60,70,72,76,79,81,83,86,91,101</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2646,7 +2922,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3318,6 +3594,48 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-08-29 07:28</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>102</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="E16" t="n">
+        <v>123</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>16,67</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3329,7 +3647,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4001,6 +4319,48 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-08-29 07:28</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>102</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="E16" t="n">
+        <v>675</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2,5,13,14,16,53,56,64,65,67</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4012,7 +4372,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4684,240 +5044,49 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-08-29 07:28</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>102</v>
+      </c>
+      <c r="C16" t="n">
+        <v>20</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1961</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1274</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>12</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>1,2,4,5,6,9,17,18,35,41,52,53,55,56,57,60,68,69,86,92</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
-    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
-    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10D58A13-3D42-4478-BC92-32D0786F5661}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BE0708C-3F2B-4D70-BA19-570FBEDC160F}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1425CC45-06B2-4A3C-A3E0-2801E5DE4730}"/>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -6035,4 +6035,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B30F8A-CF49-4C6F-AA8B-A57DCC201C80}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59A2FB9C-5021-4416-AFA3-8304245734B3}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B90F300E-661A-4666-8A7D-79060E92402D}"/>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ADTR_conversions" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="RUGV_aov" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="FRCTL_headset" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="FRCTL_chair" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="SODER_stats" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="SODER_ads" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="SODER_rank_fiskedrag" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="SODER_rank_fiskerullar" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="SODER_rank_fiskespon" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="SODER_rank_vaskor" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ADTR_conversions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RUGV_aov" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRCTL_headset" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRCTL_chair" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_stats" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_ads" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskedrag" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskerullar" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskespon" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_vaskor" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -2013,7 +2013,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2211,6 +2211,24 @@
         <v>2</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-09-02 06:38</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2222,7 +2240,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2544,6 +2562,33 @@
       </c>
       <c r="G11" s="9" t="n">
         <v>34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-09-02 06:36</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>13</v>
+      </c>
+      <c r="D12" t="n">
+        <v>24</v>
+      </c>
+      <c r="E12" t="n">
+        <v>19</v>
+      </c>
+      <c r="F12" t="n">
+        <v>28</v>
+      </c>
+      <c r="G12" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -6318,4 +6363,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3908992-6939-423D-B5FE-A0558F079FC6}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C90FF27-73C0-4173-A664-C793A6628029}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6885143C-225C-4235-A31C-0F27F569FDBA}"/>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -6646,4 +6646,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3BA313C-E837-4699-90B8-09224193A534}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC867B1-3F1C-4218-9E30-942EA7260E45}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D67DEFB-15AB-4232-B70C-66FE34665F22}"/>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ADTR_conversions" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="RUGV_aov" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="FRCTL_headset" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="FRCTL_chair" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="SODER_stats" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="SODER_ads" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="SODER_rank_fiskedrag" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="SODER_rank_fiskerullar" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="SODER_rank_fiskespon" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="SODER_rank_vaskor" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ADTR_conversions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RUGV_aov" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRCTL_headset" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRCTL_chair" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_stats" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_ads" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskedrag" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskerullar" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskespon" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_vaskor" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -2155,7 +2155,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2371,6 +2371,24 @@
         <v>2</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-09-04 11:51</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2382,7 +2400,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2731,6 +2749,33 @@
       </c>
       <c r="G12" t="n">
         <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-09-04 10:50</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>21</v>
+      </c>
+      <c r="E13" t="n">
+        <v>19</v>
+      </c>
+      <c r="F13" t="n">
+        <v>28</v>
+      </c>
+      <c r="G13" t="n">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -6929,4 +6974,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB63EE56-73BB-4855-BCCC-8C266CFD3843}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C44D5BCC-CBB4-4023-8807-F09CDDF69BF3}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{942AB09B-C933-4A08-82B4-ADB3C17989F5}"/>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -7823,4 +7823,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E72313D5-D468-49C5-821A-61B66F713181}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF9A5ACA-60A2-4D3D-9392-BB2F30CBA2F3}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04189C08-E39D-48AC-94AC-6E12E941946C}"/>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8106,4 +8106,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F60EC32-0623-42D2-9608-5D83BA0F72ED}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FA0144-A0CB-4911-8EFC-20F8B2E5B0F1}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5CE6E8D-A5D8-439A-8B6E-E52100465472}"/>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ADTR_conversions" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="RUGV_aov" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="FRCTL_headset" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="FRCTL_chair" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="SODER_stats" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="SODER_ads" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="SODER_rank_fiskedrag" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="SODER_rank_fiskerullar" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="SODER_rank_fiskespon" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="SODER_rank_vaskor" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ADTR_conversions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RUGV_aov" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRCTL_headset" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRCTL_chair" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_stats" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_ads" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskedrag" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskerullar" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskespon" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_vaskor" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -2439,7 +2439,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2673,6 +2673,24 @@
         <v>2</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:59</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2684,7 +2702,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3060,6 +3078,33 @@
       </c>
       <c r="G13" t="n">
         <v>31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:58</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="n">
+        <v>22</v>
+      </c>
+      <c r="E14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F14" t="n">
+        <v>27</v>
+      </c>
+      <c r="G14" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -8330,13 +8375,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F60EC32-0623-42D2-9608-5D83BA0F72ED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24619EAA-F072-496C-962E-4AD8D97B41F7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FA0144-A0CB-4911-8EFC-20F8B2E5B0F1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3DAC72-4123-4E5E-96EC-74AB127D749E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5CE6E8D-A5D8-439A-8B6E-E52100465472}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B596A09-AF73-4AC0-89A2-5F53A2639155}"/>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ADTR_conversions" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RUGV_aov" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRCTL_headset" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRCTL_chair" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_stats" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_ads" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskedrag" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskerullar" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskespon" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_vaskor" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="ADTR_conversions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RUGV_aov" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="FRCTL_headset" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="FRCTL_chair" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="SODER_stats" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SODER_ads" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="SODER_rank_fiskedrag" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="SODER_rank_fiskerullar" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="SODER_rank_fiskespon" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="SODER_rank_vaskor" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -516,7 +516,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1014,6 +1014,22 @@
         <v>14117</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-09-09 06:26</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>52912429</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2336</v>
+      </c>
+      <c r="D31" t="n">
+        <v>19222</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1025,7 +1041,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2159,6 +2175,48 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-09-09 06:32</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>102</v>
+      </c>
+      <c r="C27" t="n">
+        <v>22</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2157</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1405</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>12</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1,2,3,6,7,8,11,19,26,29,38,52,53,54,57,58,59,62,70,77,80,89</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2170,7 +2228,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2425,6 +2483,19 @@
         <v>2118</v>
       </c>
       <c r="C19" t="n">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-09-09 06:32</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2090</v>
+      </c>
+      <c r="C20" t="n">
         <v>2818</v>
       </c>
     </row>
@@ -3118,7 +3189,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3928,6 +3999,37 @@
         <v>1425</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-09-09 06:32</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.2745</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1536</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="E26" t="n">
+        <v>117</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1569</v>
+      </c>
+      <c r="G26" t="n">
+        <v>840</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2157</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1405</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3939,7 +4041,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4713,6 +4815,61 @@
         <v>41</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>73</v>
+      </c>
+      <c r="C14" t="n">
+        <v>250</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="n">
+        <v>59</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" t="n">
+        <v>10</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>32</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>34</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>32</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>20</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4724,7 +4881,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5858,6 +6015,48 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-09-09 06:32</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>102</v>
+      </c>
+      <c r="C27" t="n">
+        <v>28</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2745</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1536</v>
+      </c>
+      <c r="F27" t="n">
+        <v>24</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1,2,3,11,12,14,15,23,25,33,34,43,50,51,52,53,54,62,63,65,66,74,76,84,85,94,101,102</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5869,7 +6068,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7003,6 +7202,48 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-09-09 06:32</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>102</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="E27" t="n">
+        <v>117</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>19,70</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7014,7 +7255,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8148,240 +8389,49 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-09-09 06:32</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>102</v>
+      </c>
+      <c r="C27" t="n">
+        <v>16</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.1569</v>
+      </c>
+      <c r="E27" t="n">
+        <v>840</v>
+      </c>
+      <c r="F27" t="n">
+        <v>12</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>2,5,15,19,31,32,46,50,53,56,66,70,82,83,97,101</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
-    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
-    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24619EAA-F072-496C-962E-4AD8D97B41F7}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3DAC72-4123-4E5E-96EC-74AB127D749E}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B596A09-AF73-4AC0-89A2-5F53A2639155}"/>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ADTR_conversions" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="RUGV_aov" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="FRCTL_headset" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="FRCTL_chair" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="SODER_stats" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="SODER_ads" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="SODER_rank_fiskedrag" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="SODER_rank_fiskerullar" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="SODER_rank_fiskespon" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="SODER_rank_vaskor" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ADTR_conversions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RUGV_aov" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRCTL_headset" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRCTL_chair" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_stats" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_ads" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskedrag" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskerullar" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskespon" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_vaskor" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -2510,7 +2510,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2762,6 +2762,24 @@
         <v>3</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:47</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2773,7 +2791,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3175,6 +3193,33 @@
         <v>27</v>
       </c>
       <c r="G14" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>22</v>
+      </c>
+      <c r="E15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" t="n">
+        <v>27</v>
+      </c>
+      <c r="G15" t="n">
         <v>32</v>
       </c>
     </row>
@@ -8434,4 +8479,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{378CF428-BF69-42DB-BEA3-D137BF9CAAC2}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0A0DE4D-2B23-47ED-8DC3-065AE6A98DF8}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76C0063F-6E07-489D-8F6D-FF31B7036F8C}"/>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ADTR_conversions" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RUGV_aov" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRCTL_headset" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRCTL_chair" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_stats" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_ads" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskedrag" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskerullar" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskespon" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_vaskor" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="ADTR_conversions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RUGV_aov" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="FRCTL_headset" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="FRCTL_chair" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="SODER_stats" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SODER_ads" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="SODER_rank_fiskedrag" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="SODER_rank_fiskerullar" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="SODER_rank_fiskespon" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="SODER_rank_vaskor" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -516,7 +516,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1030,6 +1030,22 @@
         <v>19222</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:23</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>52939481</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2338</v>
+      </c>
+      <c r="D32" t="n">
+        <v>27052</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1041,7 +1057,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2217,6 +2233,48 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:30</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>102</v>
+      </c>
+      <c r="C28" t="n">
+        <v>22</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.2157</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1413</v>
+      </c>
+      <c r="F28" t="n">
+        <v>8</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>12</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1,2,3,6,7,9,11,18,26,29,34,52,53,54,57,58,60,62,69,77,80,85</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2228,7 +2286,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2497,6 +2555,19 @@
       </c>
       <c r="C20" t="n">
         <v>2818</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:30</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2107</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2781</v>
       </c>
     </row>
   </sheetData>
@@ -3234,7 +3305,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4075,6 +4146,37 @@
         <v>1405</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:30</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.2353</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1410</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="E27" t="n">
+        <v>115</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1176</v>
+      </c>
+      <c r="G27" t="n">
+        <v>700</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.2157</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1413</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4086,7 +4188,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4915,6 +5017,61 @@
         <v>41</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>73</v>
+      </c>
+      <c r="C15" t="n">
+        <v>250</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>59</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>32</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>34</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>32</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>20</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4926,7 +5083,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6102,6 +6259,48 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:30</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>102</v>
+      </c>
+      <c r="C28" t="n">
+        <v>24</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.2353</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1410</v>
+      </c>
+      <c r="F28" t="n">
+        <v>22</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1,2,3,11,12,14,15,23,25,33,41,45,52,53,54,62,63,65,66,74,76,84,92,96</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6113,7 +6312,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7289,6 +7488,48 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:30</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>102</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="E28" t="n">
+        <v>115</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>20,71</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7300,7 +7541,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8476,240 +8717,49 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:30</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>102</v>
+      </c>
+      <c r="C28" t="n">
+        <v>12</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.1176</v>
+      </c>
+      <c r="E28" t="n">
+        <v>700</v>
+      </c>
+      <c r="F28" t="n">
+        <v>8</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2,5,16,20,30,42,53,56,67,71,81,93</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
-    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
-    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{378CF428-BF69-42DB-BEA3-D137BF9CAAC2}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0A0DE4D-2B23-47ED-8DC3-065AE6A98DF8}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76C0063F-6E07-489D-8F6D-FF31B7036F8C}"/>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8762,4 +8762,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D62336CA-C4A4-45F0-9CA9-E5B7CD8089D1}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AA8B29D-4DF9-4A79-98E8-B4F283EF7E77}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA8555EF-6B71-497E-B79F-6C25CF685ED9}"/>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -516,7 +516,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1046,6 +1046,22 @@
         <v>27052</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-09-11 05:29</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>52959679</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2345</v>
+      </c>
+      <c r="D33" t="n">
+        <v>20198</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1057,7 +1073,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2275,6 +2291,48 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-09-11 05:36</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>102</v>
+      </c>
+      <c r="C29" t="n">
+        <v>22</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.2157</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1409</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>12</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>1,2,3,4,7,10,14,18,25,28,36,52,53,54,55,58,61,65,69,76,79,87</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2286,7 +2344,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2568,6 +2626,19 @@
       </c>
       <c r="C21" t="n">
         <v>2781</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-09-11 05:36</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2114</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2875</v>
       </c>
     </row>
   </sheetData>
@@ -3305,7 +3376,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4177,6 +4248,37 @@
         <v>1413</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-09-11 05:36</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2353</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1412</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="E28" t="n">
+        <v>115</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1176</v>
+      </c>
+      <c r="G28" t="n">
+        <v>690</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2157</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1409</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4188,7 +4290,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5072,6 +5174,61 @@
         <v>41</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>75</v>
+      </c>
+      <c r="C16" t="n">
+        <v>250</v>
+      </c>
+      <c r="D16" t="n">
+        <v>13</v>
+      </c>
+      <c r="E16" t="n">
+        <v>59</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>32</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>34</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>32</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>20</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5083,7 +5240,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6301,6 +6458,48 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-09-11 05:36</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>102</v>
+      </c>
+      <c r="C29" t="n">
+        <v>24</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.2353</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1412</v>
+      </c>
+      <c r="F29" t="n">
+        <v>22</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>1,2,3,11,12,13,16,23,26,33,35,49,52,53,54,62,63,64,67,74,77,84,86,100</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6312,7 +6511,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7530,6 +7729,48 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-09-11 05:36</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>102</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="E29" t="n">
+        <v>115</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>20,71</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7541,7 +7782,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8759,240 +9000,49 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-09-11 05:36</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>102</v>
+      </c>
+      <c r="C29" t="n">
+        <v>12</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.1176</v>
+      </c>
+      <c r="E29" t="n">
+        <v>690</v>
+      </c>
+      <c r="F29" t="n">
+        <v>10</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>2,5,15,20,28,50,53,56,66,71,79,101</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
-    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
-    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D62336CA-C4A4-45F0-9CA9-E5B7CD8089D1}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AA8B29D-4DF9-4A79-98E8-B4F283EF7E77}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA8555EF-6B71-497E-B79F-6C25CF685ED9}"/>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ADTR_conversions" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="RUGV_aov" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="FRCTL_headset" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="FRCTL_chair" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="SODER_stats" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="SODER_ads" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="SODER_rank_fiskedrag" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="SODER_rank_fiskerullar" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="SODER_rank_fiskespon" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="SODER_rank_vaskor" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ADTR_conversions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RUGV_aov" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRCTL_headset" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRCTL_chair" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_stats" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_ads" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskedrag" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskerullar" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskespon" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_vaskor" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -2652,7 +2652,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2922,6 +2922,24 @@
         <v>3</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-09-11 11:54</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2933,7 +2951,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3362,6 +3380,33 @@
         <v>27</v>
       </c>
       <c r="G15" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-09-11 11:29</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>13</v>
+      </c>
+      <c r="D16" t="n">
+        <v>22</v>
+      </c>
+      <c r="E16" t="n">
+        <v>21</v>
+      </c>
+      <c r="F16" t="n">
+        <v>27</v>
+      </c>
+      <c r="G16" t="n">
         <v>32</v>
       </c>
     </row>
@@ -9045,4 +9090,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C61FD5A-B168-483A-9D67-A5D524686CE2}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F224FF87-DA0C-4696-B9C8-CBAF3844DAB9}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41478DD4-1B97-4E09-8F6B-C73134ED726C}"/>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ADTR_conversions" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RUGV_aov" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRCTL_headset" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRCTL_chair" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_stats" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_ads" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskedrag" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskerullar" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskespon" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_vaskor" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="ADTR_conversions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RUGV_aov" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="FRCTL_headset" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="FRCTL_chair" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="SODER_stats" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SODER_ads" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="SODER_rank_fiskedrag" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="SODER_rank_fiskerullar" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="SODER_rank_fiskespon" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="SODER_rank_vaskor" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -516,7 +516,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1062,6 +1062,22 @@
         <v>20198</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-09-12 05:23</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>52978641</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2343</v>
+      </c>
+      <c r="D34" t="n">
+        <v>18962</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1073,7 +1089,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2333,6 +2349,48 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-09-12 05:29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>102</v>
+      </c>
+      <c r="C30" t="n">
+        <v>22</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.2157</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1407</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>12</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1,2,3,5,7,10,15,17,25,27,37,52,53,54,56,58,61,66,68,76,78,88</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2344,7 +2402,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2639,6 +2697,19 @@
       </c>
       <c r="C22" t="n">
         <v>2875</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-09-12 05:29</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2118</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2838</v>
       </c>
     </row>
   </sheetData>
@@ -3421,7 +3492,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4324,6 +4395,37 @@
         <v>1409</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-09-12 05:29</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.2353</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1420</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="E29" t="n">
+        <v>115</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1373</v>
+      </c>
+      <c r="G29" t="n">
+        <v>761</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.2157</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1407</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4335,7 +4437,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5274,6 +5376,61 @@
         <v>41</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>76</v>
+      </c>
+      <c r="C17" t="n">
+        <v>250</v>
+      </c>
+      <c r="D17" t="n">
+        <v>13</v>
+      </c>
+      <c r="E17" t="n">
+        <v>59</v>
+      </c>
+      <c r="F17" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>32</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>34</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>32</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>20</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5285,7 +5442,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6545,6 +6702,48 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-09-12 05:29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>102</v>
+      </c>
+      <c r="C30" t="n">
+        <v>24</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.2353</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1420</v>
+      </c>
+      <c r="F30" t="n">
+        <v>22</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1,2,3,11,12,13,16,21,26,31,36,48,52,53,54,62,63,64,67,72,77,82,87,99</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6556,7 +6755,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7816,6 +8015,48 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-09-12 05:29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>102</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="E30" t="n">
+        <v>115</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>20,71</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7827,7 +8068,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9087,240 +9328,49 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-09-12 05:29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>102</v>
+      </c>
+      <c r="C30" t="n">
+        <v>14</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.1373</v>
+      </c>
+      <c r="E30" t="n">
+        <v>761</v>
+      </c>
+      <c r="F30" t="n">
+        <v>12</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>2,4,16,21,28,44,47,53,55,67,72,79,95,98</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
-    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
-    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C61FD5A-B168-483A-9D67-A5D524686CE2}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F224FF87-DA0C-4696-B9C8-CBAF3844DAB9}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41478DD4-1B97-4E09-8F6B-C73134ED726C}"/>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -9373,4 +9373,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F13A91D9-74AE-4A10-951A-7BEC7D5E8813}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE6447F-F856-469F-9C30-B439666A1AFD}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{441F28A6-078C-49ED-AA61-276DEE59375A}"/>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ADTR_conversions" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="RUGV_aov" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="FRCTL_headset" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="FRCTL_chair" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="SODER_stats" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="SODER_ads" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="SODER_rank_fiskedrag" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="SODER_rank_fiskerullar" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="SODER_rank_fiskespon" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="SODER_rank_vaskor" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ADTR_conversions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RUGV_aov" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRCTL_headset" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRCTL_chair" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_stats" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_ads" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskedrag" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskerullar" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_fiskespon" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODER_rank_vaskor" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -2723,7 +2723,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3011,6 +3011,24 @@
         <v>3</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-09-12 06:55</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3022,7 +3040,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3478,6 +3496,33 @@
         <v>27</v>
       </c>
       <c r="G16" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-09-12 06:52</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>13</v>
+      </c>
+      <c r="D17" t="n">
+        <v>23</v>
+      </c>
+      <c r="E17" t="n">
+        <v>21</v>
+      </c>
+      <c r="F17" t="n">
+        <v>27</v>
+      </c>
+      <c r="G17" t="n">
         <v>32</v>
       </c>
     </row>
@@ -9597,13 +9642,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F13A91D9-74AE-4A10-951A-7BEC7D5E8813}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DCAF9DB-8026-415F-B367-2C6B8BEA8480}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE6447F-F856-469F-9C30-B439666A1AFD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A0D994F-493E-4E09-B478-3912606A94AA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{441F28A6-078C-49ED-AA61-276DEE59375A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF1EC46F-3FE2-47B1-BD18-DCD8D54542F9}"/>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -9842,4 +9842,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9538A170-A47F-4C95-A2B4-49E78BFBCFC1}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DBC0A7C-4A8F-4E15-9AB1-4F872A97F98B}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F74DCA-1787-4B83-BC89-E0817A4CD4CC}"/>
 </file>